--- a/attached_assets/10Static nuevo formato.xlsx
+++ b/attached_assets/10Static nuevo formato.xlsx
@@ -5153,7 +5153,7 @@
       <c r="W23" s="20"/>
     </row>
   </sheetData>
-  <sheetProtection password="DE73" sheet="1"/>
+  <sheetProtection password="DE73" sheet="0"/>
   <mergeCells count="19">
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="B2:I2"/>
@@ -13613,7 +13613,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="DE73" sheet="1"/>
+  <sheetProtection password="DE73" sheet="0"/>
   <mergeCells count="6">
     <mergeCell ref="A1:AH1"/>
     <mergeCell ref="B2:Q2"/>
@@ -16069,7 +16069,7 @@
       <c r="AE42" s="12"/>
     </row>
   </sheetData>
-  <sheetProtection password="DE73" sheet="1"/>
+  <sheetProtection password="DE73" sheet="0"/>
   <mergeCells count="6">
     <mergeCell ref="A1:AE2"/>
     <mergeCell ref="A3:B3"/>
@@ -26721,7 +26721,7 @@
       <c r="L374" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DE73" sheet="1"/>
+  <sheetProtection password="DE73" sheet="0"/>
   <mergeCells count="11">
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
